--- a/example/Chapter10_Example.xlsx
+++ b/example/Chapter10_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHK\Google 드라이브\KHU\Lecture\IE208 응용통계학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is910\Desktop\applied_statistics\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_8312CB22ED64C16B9FD43C5ED0D15BD60B68BC3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07988A85-573A-E34B-AB47-2C23C8A3BDD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEBAA5F-77D4-47A1-8AAD-BA75BFD72AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="30" windowWidth="11180" windowHeight="10000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="63">
   <si>
     <t>Positive results</t>
   </si>
@@ -212,6 +212,66 @@
   </si>
   <si>
     <t xml:space="preserve"> ==&gt; p-value &gt; alpha, so no strong evidence that the screening is okay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p &gt;= 0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p &lt; 0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_hat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-statistic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>with continuity correction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-n*p_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_0.01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>99% one-sided confidence interval</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower bound</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pooled</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7082367" y="5806018"/>
-          <a:ext cx="4071567" cy="1559983"/>
+          <a:off x="5705929" y="6759122"/>
+          <a:ext cx="3191638" cy="1811565"/>
           <a:chOff x="1115616" y="2708920"/>
           <a:chExt cx="4887441" cy="2575173"/>
         </a:xfrm>
@@ -1104,8 +1164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2866359" y="5482680"/>
-          <a:ext cx="4338546" cy="1703387"/>
+          <a:off x="2372784" y="6379634"/>
+          <a:ext cx="3468511" cy="1997428"/>
           <a:chOff x="1115616" y="2708920"/>
           <a:chExt cx="4887441" cy="2575173"/>
         </a:xfrm>
@@ -1244,8 +1304,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>94859</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="잉크 6">
@@ -1267,7 +1327,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="잉크 6">
@@ -1315,8 +1375,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>126539</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="잉크 7">
@@ -1338,7 +1398,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="잉크 7">
@@ -1386,8 +1446,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>150659</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="잉크 8">
@@ -1409,7 +1469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="잉크 8">
@@ -1457,8 +1517,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>147779</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="잉크 9">
@@ -1480,7 +1540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="잉크 9">
@@ -1523,13 +1583,13 @@
       <xdr:rowOff>80459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>663308</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>140579</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="잉크 10">
@@ -1551,7 +1611,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="잉크 10">
@@ -1595,12 +1655,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>736748</xdr:colOff>
+      <xdr:colOff>660548</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>143819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="잉크 11">
@@ -1622,7 +1682,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="잉크 11">
@@ -1666,12 +1726,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>824588</xdr:colOff>
+      <xdr:colOff>660888</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>80819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="잉크 12">
@@ -1693,7 +1753,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="잉크 12">
@@ -1737,12 +1797,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>831428</xdr:colOff>
+      <xdr:colOff>660258</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>147779</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="잉크 13">
@@ -1764,7 +1824,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="잉크 13">
@@ -1812,8 +1872,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>49499</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="잉크 14">
@@ -1835,7 +1895,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="잉크 14">
@@ -1883,8 +1943,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>154619</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="잉크 15">
@@ -1906,7 +1966,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="잉크 15">
@@ -1954,8 +2014,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182339</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="잉크 16">
@@ -1977,7 +2037,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="잉크 16">
@@ -2025,8 +2085,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>108899</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="잉크 17">
@@ -2048,7 +2108,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="잉크 17">
@@ -2096,8 +2156,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>21508</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="잉크 18">
@@ -2119,7 +2179,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="잉크 18">
@@ -2167,8 +2227,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>45988</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="잉크 20">
@@ -2190,7 +2250,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="잉크 20">
@@ -2800,7 +2860,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 50 8067,'4'-9'-104,"-4"2"0,-1-1 0,-5 2 0,-2 0 1322,0-1 0,1 5-831,1-1-212,3 2 0,-5 1 87,1 0 1,2 0 204,-2 0-971,1 4 0,-4 2 251,0 3 0,2 1 10,1 0 1,0 0 122,3-1 0,1 1-162,3 0 0,-3-1 170,0 1 1,-1 3 65,4 0 0,2 1 145,1-1 1,1 2-85,3 5 1,1-2 104,-1-1 1,1 2-56,2 1 1,-1-1-37,-3 4 1,3-2-59,-3 2 1,-1-2-2,-2 2 1,-2-3-21,-1 0 0,0-1-154,0 1 1,0-2-194,0-2 0,0-2 138,0-4 1,0 0-615,0 0 348,-4-5 525,-2-1 0,-3-4 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 59 8067,'4'-11'-104,"-4"3"0,-1-1 0,-5 1 0,-2 1 1322,0-1 0,1 6-831,1-2-212,3 3 0,-5 1 87,1 0 1,2 0 204,-2 0-971,1 5 0,-4 2 251,0 3 0,2 2 10,1 0 1,0 0 122,3-1 0,1 0-162,3 1 0,-3-1 170,0 1 1,-1 3 65,4 0 0,2 2 145,1-2 1,1 3-85,3 6 1,1-3 104,-1-1 1,1 2-56,2 2 1,-1-1-37,-3 4 1,3-3-59,-3 4 1,-1-4-2,-2 4 1,-2-5-21,-1 1 0,0-2-154,0 2 1,0-3-194,0-2 0,0-2 138,0-5 1,0-1-615,0 1 348,-4-6 525,-2-1 0,-3-5 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2856,7 +2916,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">88 0 8109,'-10'10'802,"0"0"-657,5-1 1,-3 2 51,5 2 0,-4-1-49,0 4 1,2 0-140,-2 4 1,5 1-72,-1 1 0,-2 3 55,2 4 1,-3 2-289,2 1 1,1 3-73,3 4 1,6 0-279,3 0 1,5-1 284,6-3 360,4-1 0,1-9 0,4-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">88 0 8109,'-10'13'802,"0"1"-657,5-2 1,-3 3 51,5 2 0,-4-1-49,0 6 1,2-1-140,-2 6 1,5 2-72,-1 0 0,-2 5 55,2 5 1,-3 2-289,2 2 1,1 5-73,3 4 1,6 0-279,3 1 1,5-2 284,6-4 360,4-1 0,1-13 0,4 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2884,7 +2944,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 88 7962,'0'5'-1751,"0"-2"1751,0-6 0,3-2 0,0-5 0,1 0 0,0 1 0,-2-1-23,4 0 1,-3 4 286,0-1-143,-2 1 1,-1-1 60,0 1 0,-1 3 117,-2 0 329,1 2-300,-2 1-35,4 0-134,0 4 0,1 2-41,2 4 0,3 5-112,4 4 0,-1 1 44,1 2 1,0 3-157,0 1 0,-1 2 116,1 2 0,0 2-145,0 1 1,-4 3-77,1 0 0,-5-1 69,1 1 0,-2-2 115,-1 2 1,0-2-174,0-5 1,-1-1-217,-2-2 1,-3 1 140,-3-4 0,-1-1 275,0-2 0,0-5 0,-8-1 0,-3-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 112 7962,'0'7'-1751,"0"-4"1751,0-6 0,3-4 0,0-5 0,1-1 0,0 1 0,-2 0-23,4-1 1,-3 5 286,0-1-143,-2 2 1,-1-2 60,0 1 0,-1 4 117,-2 0 329,1 3-300,-2 1-35,4 0-134,0 5 0,1 3-41,2 5 0,3 6-112,4 5 0,-1 1 44,1 3 1,0 4-157,0 2 0,-1 1 116,1 4 0,0 1-145,0 3 1,-4 2-77,1 1 0,-5-1 69,1 1 0,-2-3 115,-1 3 1,0-2-174,0-7 1,-1-2-217,-2-1 1,-3 0 140,-3-5 0,-1-1 275,0-2 0,0-7 0,-8-1 0,-3-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3024,7 +3084,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 10122,'0'10'113,"0"3"0,0 0 162,0-1 0,0 2-257,0-1 0,0 0-288,0-4 0,0 1 205,0 0-351,0-5 179,0 4-89,0-8 161,0 8-16,0-8 221,0 3-12,0-4 1,3-1 13,0-2 1,1 1-25,-4-5 0,0 4 14,0-4 1,1 1-34,2-4 235,-2 0-218,3 1 0,0-4 45,-1 0 1,3 0 14,-2 3 87,3 0 1,-3 0-149,3 1-184,2 3 121,-4 2-109,5 4 1,-2 1 123,-1 2 0,1-1-16,-5 5 0,1-1-274,-1 4 1,-2 3 82,3 0 1,0 0 133,-1-3 0,2 0-281,-2-1 0,-2 1 387,2 0 0,3 0 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 10122,'0'10'113,"0"3"0,0 0 162,0-1 0,0 2-257,0-1 0,0 0-288,0-4 0,0 1 205,0 0-351,0-5 179,0 4-89,0-8 161,0 8-16,0-8 221,0 3-12,0-4 1,0-1 13,0-2 1,0 1-25,0-5 0,0 4 14,0-4 1,0 1-34,1-4 235,-1 0-218,0 1 0,0-4 45,0 0 1,0 0 14,0 3 87,1 0 1,-1 0-149,0 1-184,1 3 121,-1 2-109,0 4 1,1 1 123,-1 2 0,0-1-16,0 5 0,0-1-274,1 4 1,-1 3 82,0 0 1,0 0 133,0-3 0,0 0-281,0-1 0,0 1 387,1 0 0,-1 0 0,0-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3377,17 +3437,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M326"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.3359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +3464,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3419,7 +3479,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3434,7 +3494,7 @@
       <c r="L4" s="33"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3449,7 +3509,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3464,7 +3524,7 @@
       <c r="L6" s="36"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3479,14 +3539,16 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3496,1595 +3558,1687 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF(B3:B326,"False positive")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <f>E13/E12</f>
+        <v>7.098765432098765E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <f>(E15-E11)/SQRT(E11*(1-E11)/E12)</f>
+        <v>-1.7407407407407409</v>
+      </c>
+      <c r="F17">
+        <f>(E15-E11)/SQRT(E11*(1-E11)/E12)*-1</f>
+        <v>1.7407407407407409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.NORM.DIST(E17, 0, 1, TRUE)</f>
+        <v>4.0864516751251592E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <f>E13-E11*E12</f>
+        <v>-9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <f>(E22+0.5)/SQRT(E12*E11*(1-E11))</f>
+        <v>-1.6481481481481477</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.NORM.DIST(E23, 0, 1, TRUE)</f>
+        <v>4.9661137039780798E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27">
+        <f>_xlfn.NORM.INV(0.01, 0, 1)</f>
+        <v>-2.3263478740408408</v>
+      </c>
+      <c r="F27">
+        <f>_xlfn.NORM.INV(0.01, 0, 1)*-1</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <f>E15+F27*SQRT(E11*(1-E11)/E12)</f>
+        <v>0.10976011888833501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B202" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B203" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B205" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B206" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B208" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B209" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B210" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B211" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B212" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B213" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B214" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B216" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B217" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B218" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B220" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B221" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B222" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B223" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B224" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B225" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B226" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B227" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B228" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B229" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B230" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B231" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B232" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B233" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B234" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B235" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B236" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B237" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B238" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B239" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B241" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B242" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B243" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B244" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B245" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B246" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B247" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B248" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B249" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B250" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B251" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B252" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B253" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B254" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B255" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B256" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B258" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B259" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B260" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B261" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B262" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B263" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B264" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B265" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B266" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B267" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B268" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B269" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B270" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B271" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B272" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B273" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B274" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B275" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B276" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B277" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B278" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B279" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B280" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B281" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B282" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B283" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B284" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B285" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B286" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B287" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B288" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B290" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B291" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B292" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B293" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B294" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B295" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B296" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B297" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B298" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B299" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B300" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B302" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B303" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B304" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B305" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B306" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B307" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B308" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B309" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B310" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B311" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B312" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B313" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B314" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B315" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B316" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B317" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B318" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B319" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B320" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B321" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B322" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B323" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B324" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B325" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B326" s="2" t="s">
         <v>1</v>
       </c>
@@ -5103,17 +5257,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J28"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.3359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5284,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5145,7 +5299,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +5314,7 @@
       <c r="L4" s="33"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5175,7 +5329,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5190,7 +5344,7 @@
       <c r="L6" s="36"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -5205,7 +5359,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5227,7 +5381,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5238,12 +5392,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -5254,7 +5408,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5419,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5277,12 +5431,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5294,12 +5448,12 @@
         <v>7.098765432098765E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5311,7 +5465,7 @@
         <v>-1.7407407407407409</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -5323,7 +5477,7 @@
         <v>4.0864516751251592E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -5331,27 +5485,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -5359,12 +5513,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -5376,7 +5530,7 @@
         <v>-1.6481481481481477</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5542,7 @@
         <v>4.9661137039780798E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5396,1492 +5550,1492 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B202" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B203" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B205" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B206" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B208" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B209" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B210" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B211" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B212" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B213" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B214" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B216" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B217" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B218" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B220" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B221" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B222" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B223" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B224" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B225" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B226" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B227" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B228" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B229" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B230" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B231" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B232" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B233" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B234" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B235" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B236" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B237" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B238" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B239" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B241" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B242" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B243" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B244" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B245" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B246" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B247" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B248" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B249" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B250" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B251" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B252" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B253" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B254" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B255" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B256" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B258" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B259" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B260" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B261" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B262" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B263" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B264" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B265" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B266" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B267" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B268" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B269" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B270" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B271" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B272" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B273" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B274" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B275" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B276" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B277" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B278" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B279" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B280" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B281" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B282" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B283" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B284" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B285" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B286" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B287" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B288" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B290" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B291" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B292" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B293" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B294" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B295" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B296" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B297" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B298" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B299" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B300" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B302" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B303" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B304" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B305" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B306" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B307" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B308" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B309" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B310" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B311" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B312" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B313" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B314" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B315" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B316" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B317" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B318" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B319" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B320" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B321" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B322" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B323" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B324" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B325" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B326" s="2" t="s">
         <v>1</v>
       </c>
@@ -6898,16 +7052,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
@@ -6918,7 +7072,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -6927,7 +7081,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -6936,7 +7090,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -6945,7 +7099,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -6954,7 +7108,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -6963,7 +7117,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -6972,22 +7126,85 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>C16/C15</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <f>F16/F15</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <f>(C16+F16)/(C15+F15)</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7004,14 +7221,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
@@ -7027,7 +7244,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -7041,7 +7258,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -7055,7 +7272,7 @@
       <c r="L4" s="32"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -7069,7 +7286,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -7077,7 +7294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -7085,7 +7302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -7093,7 +7310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -7107,7 +7324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -7137,12 +7354,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -7151,7 +7368,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -7160,7 +7377,7 @@
         <v>1.5202789461016477</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -7190,16 +7407,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.74609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28125" customWidth="1"/>
-    <col min="9" max="9" width="10.0625" customWidth="1"/>
-    <col min="10" max="10" width="13.8515625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
@@ -7217,7 +7434,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -7233,7 +7450,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -7249,7 +7466,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -7265,7 +7482,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7498,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
@@ -7297,17 +7514,17 @@
       <c r="K7" s="35"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -7315,7 +7532,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
@@ -7325,7 +7542,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
@@ -7335,7 +7552,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7562,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E16" s="19" t="s">
         <v>31</v>
       </c>
@@ -7355,7 +7572,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="20" t="s">
         <v>32</v>
       </c>
@@ -7365,11 +7582,11 @@
       <c r="I17" s="22"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="J19" s="27"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="J20" s="12"/>
     </row>
   </sheetData>
@@ -7390,16 +7607,16 @@
       <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.74609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28125" customWidth="1"/>
-    <col min="9" max="9" width="10.0625" customWidth="1"/>
-    <col min="10" max="10" width="13.8515625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
@@ -7417,7 +7634,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -7433,7 +7650,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -7449,7 +7666,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -7465,7 +7682,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -7481,7 +7698,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
@@ -7497,7 +7714,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>20</v>
       </c>
@@ -7505,7 +7722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -7513,7 +7730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E12" s="18"/>
       <c r="F12" s="15" t="s">
         <v>40</v>
@@ -7531,7 +7748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
@@ -7554,7 +7771,7 @@
         <v>2.1514641375222268</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
@@ -7577,7 +7794,7 @@
         <v>2.4770199924556744</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
@@ -7600,7 +7817,7 @@
         <v>0.79715471250740744</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E16" s="19" t="s">
         <v>31</v>
       </c>
@@ -7623,7 +7840,7 @@
         <v>8.0514626556016644</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="20" t="s">
         <v>32</v>
       </c>
@@ -7646,7 +7863,7 @@
         <v>1.0885924034471739</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
         <v>39</v>
       </c>
@@ -7656,7 +7873,7 @@
       </c>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>12</v>
       </c>
@@ -7665,7 +7882,7 @@
         <v>5.692190069986283E-3</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>41</v>
       </c>
